--- a/excel/templates/template.xlsx
+++ b/excel/templates/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/trunks/WBB/target/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB27F419-675C-4DE6-B35D-E52E33DAAD09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42C78B-D0A6-644F-BD86-08B95BDE7663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
   <sheets>
     <sheet name="На ПВЗ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Номер</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Цена</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QR</t>
   </si>
 </sst>
 </file>
@@ -457,27 +460,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5335C90F-F207-0443-9CC8-071753D913C2}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="37.625" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -514,7 +518,9 @@
       <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{79EFE145-6AF7-4829-8B15-C3C4F6246348}"/>
@@ -526,27 +532,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C5DCFB-D76E-EE4F-B8D2-546F2C037FD7}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="37.625" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>

--- a/excel/templates/template.xlsx
+++ b/excel/templates/template.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolay/trunks/WBB/target/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42C78B-D0A6-644F-BD86-08B95BDE7663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556DC33-904F-D64F-AAF3-3AB5C35F5B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{09EB10F6-87EF-4346-8EAF-2924021A5A12}"/>
   </bookViews>
   <sheets>
     <sheet name="На ПВЗ" sheetId="1" r:id="rId1"/>
     <sheet name="Все" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Все!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'На ПВЗ'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Все!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'На ПВЗ'!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Номер</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve"> QR</t>
+  </si>
+  <si>
+    <t>Тег ПВЗ</t>
   </si>
 </sst>
 </file>
@@ -126,11 +129,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,20 +458,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5335C90F-F207-0443-9CC8-071753D913C2}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="37.6640625" customWidth="1"/>
@@ -481,49 +481,52 @@
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{79EFE145-6AF7-4829-8B15-C3C4F6246348}"/>
+  <autoFilter ref="A1:N1" xr:uid="{5335C90F-F207-0443-9CC8-071753D913C2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -532,67 +535,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C5DCFB-D76E-EE4F-B8D2-546F2C037FD7}">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="37.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="10" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{D2868C15-EE6B-46B6-9322-DF5DF465D5C2}"/>
+  <autoFilter ref="A1:M1" xr:uid="{E4C5DCFB-D76E-EE4F-B8D2-546F2C037FD7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>